--- a/Cubic_equation/VLE/PartialMolar.xlsx
+++ b/Cubic_equation/VLE/PartialMolar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuck\Google Drive\A SCHOOL\SPRING16\CHEM THERMO\COMPUTATION CODES\Cubic equation\VLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CleverChuk\Desktop\ChemE_Tools\Cubic_equation\VLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -240,14 +240,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,9 +253,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -543,7 +543,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -562,31 +562,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -628,27 +628,27 @@
         <v>2</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="12">
         <f>(PI())*(D2^2)*C2</f>
         <v>44178.646691106464</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13">
         <f>A4*7.48052</f>
         <v>330479.25014575571</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="1">
         <f>600+831</f>
         <v>1431</v>
@@ -663,18 +663,18 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -703,7 +703,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="6">
         <f>A2/7.48052</f>
         <v>30.88020618887457</v>
@@ -756,15 +756,15 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
       <c r="J13" s="5" t="s">
         <v>26</v>
       </c>
